--- a/20 開発資料/03.詳細設計/プロセス概要(10_会場手配).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(10_会場手配).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -571,59 +571,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>呼び元の画面が「新着 会場手配・見積依頼一覧」「検索 会場手配・見積依頼一覧」</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以外の場合、「登録」「NOZOMIへ」「検索」「再計算」「手配書印刷」ボタンを</t>
-    <rPh sb="0" eb="2">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>サイケイサン</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>テハイショ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非表示とする。</t>
-  </si>
-  <si>
     <t>新着ステータス、回答の各欄で入力・選択された値と送信フラグ(未送信="0")を</t>
     <rPh sb="0" eb="2">
       <t>シンチャク</t>
@@ -720,10 +667,6 @@
   </si>
   <si>
     <t>KaijoRegist</t>
-  </si>
-  <si>
-    <t>TBL_KKAIJO</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>手配ステータス</t>
@@ -1124,25 +1067,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>の場合、呼び元画面へ戻る。</t>
-    <rPh sb="1" eb="3">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1214,6 +1138,82 @@
       <t>テハイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼び元の画面が「新着 会場手配一覧」「検索 会場手配一覧」以外の場合、</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」「NOZOMIへ」「検索」「再計算」「手配書印刷」ボタンを非表示とする。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイケイサン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>テハイショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼び元画面へ戻る。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼び元の画面が「新着 会場手配一覧」「検索 会場手配一覧」の場合、</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL_KAIJO</t>
   </si>
 </sst>
 </file>
@@ -1708,58 +1708,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,6 +1753,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,76 +1789,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1896,9 +1825,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1907,6 +1851,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,7 +1962,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2031,7 +2033,9 @@
         <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2112,7 +2116,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2181,7 +2187,9 @@
         <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2262,7 +2270,9 @@
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2343,7 +2353,9 @@
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -2698,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2708,196 +2720,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2909,66 +2921,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="67" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="71" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -3356,7 +3368,7 @@
         <v>29</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="N16" s="2"/>
       <c r="P16" s="2"/>
@@ -3409,7 +3421,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3463,10 +3475,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -3514,9 +3525,6 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
-      <c r="M19" t="s">
-        <v>155</v>
-      </c>
       <c r="N19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -3564,8 +3572,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="4"/>
-      <c r="N20" s="2"/>
+      <c r="L20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3612,14 +3626,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -3670,10 +3682,8 @@
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
-      <c r="M22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -3722,9 +3732,9 @@
       <c r="J23" s="3"/>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -3778,7 +3788,6 @@
       <c r="L24" s="2"/>
       <c r="M24" s="4"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4558,6 +4567,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4574,16 +4593,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4599,7 +4608,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4608,196 +4617,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -4809,66 +4818,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="67" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="71" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -5000,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -5056,7 +5065,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
       <c r="M12" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N12" s="2"/>
       <c r="T12" s="2"/>
@@ -6441,6 +6450,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6457,16 +6476,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6483,7 +6492,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6492,196 +6501,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -6693,66 +6702,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="67" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="71" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -6884,7 +6893,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -6940,7 +6949,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
       <c r="M12" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N12" s="2"/>
       <c r="T12" s="2"/>
@@ -8325,14 +8334,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8349,6 +8350,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -8367,7 +8376,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8376,196 +8385,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -8577,66 +8586,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="67" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="71" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -8768,7 +8777,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -8824,7 +8833,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -8925,10 +8934,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -10224,6 +10233,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -10240,16 +10259,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -10275,196 +10284,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -10476,66 +10485,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="67" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="71" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -10667,7 +10676,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -10779,7 +10788,7 @@
         <v>20</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -12124,6 +12133,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -12140,16 +12159,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -12175,196 +12184,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -12376,66 +12385,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="67" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -12567,7 +12576,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -12623,10 +12632,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
       <c r="M12" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -12676,10 +12685,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="4"/>
       <c r="M13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -14012,6 +14021,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -14028,16 +14047,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -14052,7 +14061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -14062,196 +14071,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="53" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="53" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="78">
         <v>41554</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="53" t="s">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="53" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="53" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="53" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -14266,77 +14275,77 @@
         <v>40</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="102" t="s">
+      <c r="M8" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="103"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="102" t="s">
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="99" t="s">
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="100"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="99" t="s">
+      <c r="W8" s="98"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="107"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="101"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="101"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="102"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
@@ -14469,8 +14478,8 @@
         <f t="shared" ref="A11:A32" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="90" t="s">
-        <v>125</v>
+      <c r="B11" s="103" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
@@ -14479,29 +14488,29 @@
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
       <c r="I11" s="92"/>
-      <c r="J11" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
+      <c r="J11" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
       <c r="R11" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="94"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="90" t="s">
-        <v>79</v>
+      <c r="S11" s="88"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="103" t="s">
+        <v>75</v>
       </c>
       <c r="Z11" s="91"/>
       <c r="AA11" s="91"/>
@@ -14510,38 +14519,38 @@
       <c r="AD11" s="91"/>
       <c r="AE11" s="91"/>
       <c r="AF11" s="92"/>
-      <c r="AG11" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="85" t="s">
+      <c r="AG11" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="108"/>
+      <c r="AN11" s="108"/>
+      <c r="AO11" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="87"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="114"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>126</v>
+      <c r="B12" s="103" t="s">
+        <v>122</v>
       </c>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
@@ -14550,29 +14559,29 @@
       <c r="G12" s="91"/>
       <c r="H12" s="91"/>
       <c r="I12" s="92"/>
-      <c r="J12" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
+      <c r="J12" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
       <c r="R12" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S12" s="94"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="90" t="s">
-        <v>80</v>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="103" t="s">
+        <v>76</v>
       </c>
       <c r="Z12" s="91"/>
       <c r="AA12" s="91"/>
@@ -14581,38 +14590,38 @@
       <c r="AD12" s="91"/>
       <c r="AE12" s="91"/>
       <c r="AF12" s="92"/>
-      <c r="AG12" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="86"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="86"/>
-      <c r="AX12" s="86"/>
-      <c r="AY12" s="86"/>
-      <c r="AZ12" s="87"/>
+      <c r="AG12" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="114"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>127</v>
+      <c r="B13" s="103" t="s">
+        <v>123</v>
       </c>
       <c r="C13" s="91"/>
       <c r="D13" s="91"/>
@@ -14621,29 +14630,29 @@
       <c r="G13" s="91"/>
       <c r="H13" s="91"/>
       <c r="I13" s="92"/>
-      <c r="J13" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
+      <c r="J13" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
       <c r="R13" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="94"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="96" t="s">
+      <c r="S13" s="88"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="103" t="s">
         <v>77</v>
-      </c>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="90" t="s">
-        <v>81</v>
       </c>
       <c r="Z13" s="91"/>
       <c r="AA13" s="91"/>
@@ -14652,38 +14661,38 @@
       <c r="AD13" s="91"/>
       <c r="AE13" s="91"/>
       <c r="AF13" s="92"/>
-      <c r="AG13" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="86"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="86"/>
-      <c r="AW13" s="86"/>
-      <c r="AX13" s="86"/>
-      <c r="AY13" s="86"/>
-      <c r="AZ13" s="87"/>
+      <c r="AG13" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="108"/>
+      <c r="AL13" s="108"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="108"/>
+      <c r="AO13" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="114"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>128</v>
+      <c r="B14" s="103" t="s">
+        <v>124</v>
       </c>
       <c r="C14" s="91"/>
       <c r="D14" s="91"/>
@@ -14692,29 +14701,29 @@
       <c r="G14" s="91"/>
       <c r="H14" s="91"/>
       <c r="I14" s="92"/>
-      <c r="J14" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
+      <c r="J14" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
       <c r="R14" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="94"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="90" t="s">
-        <v>82</v>
+      <c r="S14" s="88"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="103" t="s">
+        <v>78</v>
       </c>
       <c r="Z14" s="91"/>
       <c r="AA14" s="91"/>
@@ -14723,38 +14732,38 @@
       <c r="AD14" s="91"/>
       <c r="AE14" s="91"/>
       <c r="AF14" s="92"/>
-      <c r="AG14" s="88" t="s">
+      <c r="AG14" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="108"/>
+      <c r="AL14" s="108"/>
+      <c r="AM14" s="108"/>
+      <c r="AN14" s="108"/>
+      <c r="AO14" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="87"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="114"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>129</v>
+      <c r="B15" s="103" t="s">
+        <v>125</v>
       </c>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -14763,29 +14772,29 @@
       <c r="G15" s="91"/>
       <c r="H15" s="91"/>
       <c r="I15" s="92"/>
-      <c r="J15" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
+      <c r="J15" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
       <c r="R15" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S15" s="94"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="90" t="s">
-        <v>83</v>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="103" t="s">
+        <v>79</v>
       </c>
       <c r="Z15" s="91"/>
       <c r="AA15" s="91"/>
@@ -14794,38 +14803,38 @@
       <c r="AD15" s="91"/>
       <c r="AE15" s="91"/>
       <c r="AF15" s="92"/>
-      <c r="AG15" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="86"/>
-      <c r="AV15" s="86"/>
-      <c r="AW15" s="86"/>
-      <c r="AX15" s="86"/>
-      <c r="AY15" s="86"/>
-      <c r="AZ15" s="87"/>
+      <c r="AG15" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="108"/>
+      <c r="AK15" s="108"/>
+      <c r="AL15" s="108"/>
+      <c r="AM15" s="108"/>
+      <c r="AN15" s="108"/>
+      <c r="AO15" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="114"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="52">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="90" t="s">
-        <v>130</v>
+      <c r="B16" s="103" t="s">
+        <v>126</v>
       </c>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -14834,29 +14843,29 @@
       <c r="G16" s="91"/>
       <c r="H16" s="91"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
+      <c r="J16" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
       <c r="R16" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S16" s="94"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="90" t="s">
-        <v>84</v>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="103" t="s">
+        <v>80</v>
       </c>
       <c r="Z16" s="91"/>
       <c r="AA16" s="91"/>
@@ -14865,38 +14874,38 @@
       <c r="AD16" s="91"/>
       <c r="AE16" s="91"/>
       <c r="AF16" s="92"/>
-      <c r="AG16" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="89"/>
-      <c r="AO16" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="86"/>
-      <c r="AS16" s="86"/>
-      <c r="AT16" s="86"/>
-      <c r="AU16" s="86"/>
-      <c r="AV16" s="86"/>
-      <c r="AW16" s="86"/>
-      <c r="AX16" s="86"/>
-      <c r="AY16" s="86"/>
-      <c r="AZ16" s="87"/>
+      <c r="AG16" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="108"/>
+      <c r="AM16" s="108"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="114"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="52">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="90" t="s">
-        <v>131</v>
+      <c r="B17" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -14905,29 +14914,29 @@
       <c r="G17" s="91"/>
       <c r="H17" s="91"/>
       <c r="I17" s="92"/>
-      <c r="J17" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
+      <c r="J17" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
       <c r="R17" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="94"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="90" t="s">
-        <v>85</v>
+      <c r="S17" s="88"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="103" t="s">
+        <v>81</v>
       </c>
       <c r="Z17" s="91"/>
       <c r="AA17" s="91"/>
@@ -14936,38 +14945,38 @@
       <c r="AD17" s="91"/>
       <c r="AE17" s="91"/>
       <c r="AF17" s="92"/>
-      <c r="AG17" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP17" s="86"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="86"/>
-      <c r="AS17" s="86"/>
-      <c r="AT17" s="86"/>
-      <c r="AU17" s="86"/>
-      <c r="AV17" s="86"/>
-      <c r="AW17" s="86"/>
-      <c r="AX17" s="86"/>
-      <c r="AY17" s="86"/>
-      <c r="AZ17" s="87"/>
+      <c r="AG17" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="90" t="s">
-        <v>132</v>
+      <c r="B18" s="103" t="s">
+        <v>128</v>
       </c>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -14976,29 +14985,29 @@
       <c r="G18" s="91"/>
       <c r="H18" s="91"/>
       <c r="I18" s="92"/>
-      <c r="J18" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
+      <c r="J18" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
       <c r="R18" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="90" t="s">
-        <v>86</v>
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="103" t="s">
+        <v>82</v>
       </c>
       <c r="Z18" s="91"/>
       <c r="AA18" s="91"/>
@@ -15007,38 +15016,38 @@
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="92"/>
-      <c r="AG18" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="86"/>
-      <c r="AS18" s="86"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="86"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="86"/>
-      <c r="AX18" s="86"/>
-      <c r="AY18" s="86"/>
-      <c r="AZ18" s="87"/>
+      <c r="AG18" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="108"/>
+      <c r="AM18" s="108"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="114"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="52">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="90" t="s">
-        <v>133</v>
+      <c r="B19" s="103" t="s">
+        <v>129</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
@@ -15047,29 +15056,29 @@
       <c r="G19" s="91"/>
       <c r="H19" s="91"/>
       <c r="I19" s="92"/>
-      <c r="J19" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
+      <c r="J19" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
       <c r="R19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S19" s="94"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="90" t="s">
-        <v>87</v>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="103" t="s">
+        <v>83</v>
       </c>
       <c r="Z19" s="91"/>
       <c r="AA19" s="91"/>
@@ -15078,38 +15087,38 @@
       <c r="AD19" s="91"/>
       <c r="AE19" s="91"/>
       <c r="AF19" s="92"/>
-      <c r="AG19" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="86"/>
-      <c r="AS19" s="86"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="86"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="86"/>
-      <c r="AX19" s="86"/>
-      <c r="AY19" s="86"/>
-      <c r="AZ19" s="87"/>
+      <c r="AG19" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="108"/>
+      <c r="AK19" s="108"/>
+      <c r="AL19" s="108"/>
+      <c r="AM19" s="108"/>
+      <c r="AN19" s="108"/>
+      <c r="AO19" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="114"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="90" t="s">
-        <v>134</v>
+      <c r="B20" s="103" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="91"/>
       <c r="D20" s="91"/>
@@ -15118,29 +15127,29 @@
       <c r="G20" s="91"/>
       <c r="H20" s="91"/>
       <c r="I20" s="92"/>
-      <c r="J20" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
+      <c r="J20" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
       <c r="R20" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S20" s="94"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="90" t="s">
-        <v>88</v>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="103" t="s">
+        <v>84</v>
       </c>
       <c r="Z20" s="91"/>
       <c r="AA20" s="91"/>
@@ -15149,38 +15158,38 @@
       <c r="AD20" s="91"/>
       <c r="AE20" s="91"/>
       <c r="AF20" s="92"/>
-      <c r="AG20" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="89"/>
-      <c r="AO20" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="86"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="86"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="86"/>
-      <c r="AX20" s="86"/>
-      <c r="AY20" s="86"/>
-      <c r="AZ20" s="87"/>
+      <c r="AG20" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="108"/>
+      <c r="AL20" s="108"/>
+      <c r="AM20" s="108"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="114"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="52">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="90" t="s">
-        <v>135</v>
+      <c r="B21" s="103" t="s">
+        <v>131</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -15189,29 +15198,29 @@
       <c r="G21" s="91"/>
       <c r="H21" s="91"/>
       <c r="I21" s="92"/>
-      <c r="J21" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
+      <c r="J21" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
       <c r="R21" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S21" s="94"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="90" t="s">
-        <v>89</v>
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="103" t="s">
+        <v>85</v>
       </c>
       <c r="Z21" s="91"/>
       <c r="AA21" s="91"/>
@@ -15220,38 +15229,38 @@
       <c r="AD21" s="91"/>
       <c r="AE21" s="91"/>
       <c r="AF21" s="92"/>
-      <c r="AG21" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
-      <c r="AX21" s="86"/>
-      <c r="AY21" s="86"/>
-      <c r="AZ21" s="87"/>
+      <c r="AG21" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="108"/>
+      <c r="AL21" s="108"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="114"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="52">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="90" t="s">
-        <v>136</v>
+      <c r="B22" s="103" t="s">
+        <v>132</v>
       </c>
       <c r="C22" s="91"/>
       <c r="D22" s="91"/>
@@ -15260,29 +15269,29 @@
       <c r="G22" s="91"/>
       <c r="H22" s="91"/>
       <c r="I22" s="92"/>
-      <c r="J22" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
+      <c r="J22" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
       <c r="R22" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S22" s="94"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="90" t="s">
-        <v>90</v>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="103" t="s">
+        <v>86</v>
       </c>
       <c r="Z22" s="91"/>
       <c r="AA22" s="91"/>
@@ -15291,38 +15300,38 @@
       <c r="AD22" s="91"/>
       <c r="AE22" s="91"/>
       <c r="AF22" s="92"/>
-      <c r="AG22" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="86"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="86"/>
-      <c r="AX22" s="86"/>
-      <c r="AY22" s="86"/>
-      <c r="AZ22" s="87"/>
+      <c r="AG22" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="108"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="108"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="114"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="52">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="90" t="s">
-        <v>137</v>
+      <c r="B23" s="103" t="s">
+        <v>133</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="91"/>
@@ -15331,29 +15340,29 @@
       <c r="G23" s="91"/>
       <c r="H23" s="91"/>
       <c r="I23" s="92"/>
-      <c r="J23" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
+      <c r="J23" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
       <c r="R23" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S23" s="94"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="90" t="s">
-        <v>91</v>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="103" t="s">
+        <v>87</v>
       </c>
       <c r="Z23" s="91"/>
       <c r="AA23" s="91"/>
@@ -15362,38 +15371,38 @@
       <c r="AD23" s="91"/>
       <c r="AE23" s="91"/>
       <c r="AF23" s="92"/>
-      <c r="AG23" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
-      <c r="AX23" s="86"/>
-      <c r="AY23" s="86"/>
-      <c r="AZ23" s="87"/>
+      <c r="AG23" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="108"/>
+      <c r="AJ23" s="108"/>
+      <c r="AK23" s="108"/>
+      <c r="AL23" s="108"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="108"/>
+      <c r="AO23" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="114"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="52">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="90" t="s">
-        <v>138</v>
+      <c r="B24" s="103" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
@@ -15402,29 +15411,29 @@
       <c r="G24" s="91"/>
       <c r="H24" s="91"/>
       <c r="I24" s="92"/>
-      <c r="J24" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
+      <c r="J24" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
       <c r="R24" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S24" s="94"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="90" t="s">
-        <v>92</v>
+      <c r="S24" s="88"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="103" t="s">
+        <v>88</v>
       </c>
       <c r="Z24" s="91"/>
       <c r="AA24" s="91"/>
@@ -15433,38 +15442,38 @@
       <c r="AD24" s="91"/>
       <c r="AE24" s="91"/>
       <c r="AF24" s="92"/>
-      <c r="AG24" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP24" s="86"/>
-      <c r="AQ24" s="86"/>
-      <c r="AR24" s="86"/>
-      <c r="AS24" s="86"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="86"/>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="86"/>
-      <c r="AX24" s="86"/>
-      <c r="AY24" s="86"/>
-      <c r="AZ24" s="87"/>
+      <c r="AG24" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="108"/>
+      <c r="AL24" s="108"/>
+      <c r="AM24" s="108"/>
+      <c r="AN24" s="108"/>
+      <c r="AO24" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="113"/>
+      <c r="AR24" s="113"/>
+      <c r="AS24" s="113"/>
+      <c r="AT24" s="113"/>
+      <c r="AU24" s="113"/>
+      <c r="AV24" s="113"/>
+      <c r="AW24" s="113"/>
+      <c r="AX24" s="113"/>
+      <c r="AY24" s="113"/>
+      <c r="AZ24" s="114"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="52">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="90" t="s">
-        <v>139</v>
+      <c r="B25" s="103" t="s">
+        <v>135</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -15473,29 +15482,29 @@
       <c r="G25" s="91"/>
       <c r="H25" s="91"/>
       <c r="I25" s="92"/>
-      <c r="J25" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
+      <c r="J25" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
       <c r="R25" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S25" s="94"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="90" t="s">
-        <v>93</v>
+      <c r="S25" s="88"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="103" t="s">
+        <v>89</v>
       </c>
       <c r="Z25" s="91"/>
       <c r="AA25" s="91"/>
@@ -15504,38 +15513,38 @@
       <c r="AD25" s="91"/>
       <c r="AE25" s="91"/>
       <c r="AF25" s="92"/>
-      <c r="AG25" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="86"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="86"/>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="86"/>
-      <c r="AX25" s="86"/>
-      <c r="AY25" s="86"/>
-      <c r="AZ25" s="87"/>
+      <c r="AG25" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="108"/>
+      <c r="AJ25" s="108"/>
+      <c r="AK25" s="108"/>
+      <c r="AL25" s="108"/>
+      <c r="AM25" s="108"/>
+      <c r="AN25" s="108"/>
+      <c r="AO25" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="113"/>
+      <c r="AR25" s="113"/>
+      <c r="AS25" s="113"/>
+      <c r="AT25" s="113"/>
+      <c r="AU25" s="113"/>
+      <c r="AV25" s="113"/>
+      <c r="AW25" s="113"/>
+      <c r="AX25" s="113"/>
+      <c r="AY25" s="113"/>
+      <c r="AZ25" s="114"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="90" t="s">
-        <v>140</v>
+      <c r="B26" s="103" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
@@ -15544,29 +15553,29 @@
       <c r="G26" s="91"/>
       <c r="H26" s="91"/>
       <c r="I26" s="92"/>
-      <c r="J26" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
+      <c r="J26" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
       <c r="R26" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S26" s="94"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="90" t="s">
-        <v>94</v>
+      <c r="S26" s="88"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="103" t="s">
+        <v>90</v>
       </c>
       <c r="Z26" s="91"/>
       <c r="AA26" s="91"/>
@@ -15575,38 +15584,38 @@
       <c r="AD26" s="91"/>
       <c r="AE26" s="91"/>
       <c r="AF26" s="92"/>
-      <c r="AG26" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
-      <c r="AZ26" s="87"/>
+      <c r="AG26" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="108"/>
+      <c r="AL26" s="108"/>
+      <c r="AM26" s="108"/>
+      <c r="AN26" s="108"/>
+      <c r="AO26" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP26" s="113"/>
+      <c r="AQ26" s="113"/>
+      <c r="AR26" s="113"/>
+      <c r="AS26" s="113"/>
+      <c r="AT26" s="113"/>
+      <c r="AU26" s="113"/>
+      <c r="AV26" s="113"/>
+      <c r="AW26" s="113"/>
+      <c r="AX26" s="113"/>
+      <c r="AY26" s="113"/>
+      <c r="AZ26" s="114"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="52">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="90" t="s">
-        <v>141</v>
+      <c r="B27" s="103" t="s">
+        <v>137</v>
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -15615,29 +15624,29 @@
       <c r="G27" s="91"/>
       <c r="H27" s="91"/>
       <c r="I27" s="92"/>
-      <c r="J27" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="J27" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
       <c r="R27" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="90" t="s">
-        <v>95</v>
+      <c r="S27" s="88"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="103" t="s">
+        <v>91</v>
       </c>
       <c r="Z27" s="91"/>
       <c r="AA27" s="91"/>
@@ -15646,38 +15655,38 @@
       <c r="AD27" s="91"/>
       <c r="AE27" s="91"/>
       <c r="AF27" s="92"/>
-      <c r="AG27" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="89"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="89"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="89"/>
-      <c r="AO27" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP27" s="86"/>
-      <c r="AQ27" s="86"/>
-      <c r="AR27" s="86"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="86"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="86"/>
-      <c r="AX27" s="86"/>
-      <c r="AY27" s="86"/>
-      <c r="AZ27" s="87"/>
+      <c r="AG27" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP27" s="113"/>
+      <c r="AQ27" s="113"/>
+      <c r="AR27" s="113"/>
+      <c r="AS27" s="113"/>
+      <c r="AT27" s="113"/>
+      <c r="AU27" s="113"/>
+      <c r="AV27" s="113"/>
+      <c r="AW27" s="113"/>
+      <c r="AX27" s="113"/>
+      <c r="AY27" s="113"/>
+      <c r="AZ27" s="114"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="52">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="90" t="s">
-        <v>142</v>
+      <c r="B28" s="103" t="s">
+        <v>138</v>
       </c>
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
@@ -15686,29 +15695,29 @@
       <c r="G28" s="91"/>
       <c r="H28" s="91"/>
       <c r="I28" s="92"/>
-      <c r="J28" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
+      <c r="J28" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
       <c r="R28" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S28" s="94"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="90" t="s">
-        <v>96</v>
+      <c r="S28" s="88"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="103" t="s">
+        <v>92</v>
       </c>
       <c r="Z28" s="91"/>
       <c r="AA28" s="91"/>
@@ -15717,38 +15726,38 @@
       <c r="AD28" s="91"/>
       <c r="AE28" s="91"/>
       <c r="AF28" s="92"/>
-      <c r="AG28" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="89"/>
-      <c r="AN28" s="89"/>
-      <c r="AO28" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP28" s="86"/>
-      <c r="AQ28" s="86"/>
-      <c r="AR28" s="86"/>
-      <c r="AS28" s="86"/>
-      <c r="AT28" s="86"/>
-      <c r="AU28" s="86"/>
-      <c r="AV28" s="86"/>
-      <c r="AW28" s="86"/>
-      <c r="AX28" s="86"/>
-      <c r="AY28" s="86"/>
-      <c r="AZ28" s="87"/>
+      <c r="AG28" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="108"/>
+      <c r="AK28" s="108"/>
+      <c r="AL28" s="108"/>
+      <c r="AM28" s="108"/>
+      <c r="AN28" s="108"/>
+      <c r="AO28" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP28" s="113"/>
+      <c r="AQ28" s="113"/>
+      <c r="AR28" s="113"/>
+      <c r="AS28" s="113"/>
+      <c r="AT28" s="113"/>
+      <c r="AU28" s="113"/>
+      <c r="AV28" s="113"/>
+      <c r="AW28" s="113"/>
+      <c r="AX28" s="113"/>
+      <c r="AY28" s="113"/>
+      <c r="AZ28" s="114"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="52">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="90" t="s">
-        <v>143</v>
+      <c r="B29" s="103" t="s">
+        <v>139</v>
       </c>
       <c r="C29" s="91"/>
       <c r="D29" s="91"/>
@@ -15757,29 +15766,29 @@
       <c r="G29" s="91"/>
       <c r="H29" s="91"/>
       <c r="I29" s="92"/>
-      <c r="J29" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
+      <c r="J29" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
       <c r="R29" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S29" s="94"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="90" t="s">
-        <v>97</v>
+      <c r="S29" s="88"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="103" t="s">
+        <v>93</v>
       </c>
       <c r="Z29" s="91"/>
       <c r="AA29" s="91"/>
@@ -15788,38 +15797,38 @@
       <c r="AD29" s="91"/>
       <c r="AE29" s="91"/>
       <c r="AF29" s="92"/>
-      <c r="AG29" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="89"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="89"/>
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="89"/>
-      <c r="AO29" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP29" s="86"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="86"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="86"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="86"/>
-      <c r="AX29" s="86"/>
-      <c r="AY29" s="86"/>
-      <c r="AZ29" s="87"/>
+      <c r="AG29" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="108"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="108"/>
+      <c r="AM29" s="108"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP29" s="113"/>
+      <c r="AQ29" s="113"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="113"/>
+      <c r="AT29" s="113"/>
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="113"/>
+      <c r="AW29" s="113"/>
+      <c r="AX29" s="113"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="114"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="90" t="s">
-        <v>144</v>
+      <c r="B30" s="103" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="91"/>
       <c r="D30" s="91"/>
@@ -15828,29 +15837,29 @@
       <c r="G30" s="91"/>
       <c r="H30" s="91"/>
       <c r="I30" s="92"/>
-      <c r="J30" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
+      <c r="J30" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
       <c r="R30" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S30" s="94"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="90" t="s">
-        <v>98</v>
+      <c r="S30" s="88"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="103" t="s">
+        <v>94</v>
       </c>
       <c r="Z30" s="91"/>
       <c r="AA30" s="91"/>
@@ -15859,38 +15868,38 @@
       <c r="AD30" s="91"/>
       <c r="AE30" s="91"/>
       <c r="AF30" s="92"/>
-      <c r="AG30" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="89"/>
-      <c r="AN30" s="89"/>
-      <c r="AO30" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP30" s="86"/>
-      <c r="AQ30" s="86"/>
-      <c r="AR30" s="86"/>
-      <c r="AS30" s="86"/>
-      <c r="AT30" s="86"/>
-      <c r="AU30" s="86"/>
-      <c r="AV30" s="86"/>
-      <c r="AW30" s="86"/>
-      <c r="AX30" s="86"/>
-      <c r="AY30" s="86"/>
-      <c r="AZ30" s="87"/>
+      <c r="AG30" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="108"/>
+      <c r="AL30" s="108"/>
+      <c r="AM30" s="108"/>
+      <c r="AN30" s="108"/>
+      <c r="AO30" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP30" s="113"/>
+      <c r="AQ30" s="113"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="113"/>
+      <c r="AT30" s="113"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="113"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="113"/>
+      <c r="AY30" s="113"/>
+      <c r="AZ30" s="114"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="52">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="90" t="s">
-        <v>145</v>
+      <c r="B31" s="103" t="s">
+        <v>141</v>
       </c>
       <c r="C31" s="91"/>
       <c r="D31" s="91"/>
@@ -15899,29 +15908,29 @@
       <c r="G31" s="91"/>
       <c r="H31" s="91"/>
       <c r="I31" s="92"/>
-      <c r="J31" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
+      <c r="J31" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
       <c r="R31" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S31" s="94"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="90" t="s">
-        <v>99</v>
+      <c r="S31" s="88"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="103" t="s">
+        <v>95</v>
       </c>
       <c r="Z31" s="91"/>
       <c r="AA31" s="91"/>
@@ -15930,38 +15939,38 @@
       <c r="AD31" s="91"/>
       <c r="AE31" s="91"/>
       <c r="AF31" s="92"/>
-      <c r="AG31" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="89"/>
-      <c r="AJ31" s="89"/>
-      <c r="AK31" s="89"/>
-      <c r="AL31" s="89"/>
-      <c r="AM31" s="89"/>
-      <c r="AN31" s="89"/>
-      <c r="AO31" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP31" s="86"/>
-      <c r="AQ31" s="86"/>
-      <c r="AR31" s="86"/>
-      <c r="AS31" s="86"/>
-      <c r="AT31" s="86"/>
-      <c r="AU31" s="86"/>
-      <c r="AV31" s="86"/>
-      <c r="AW31" s="86"/>
-      <c r="AX31" s="86"/>
-      <c r="AY31" s="86"/>
-      <c r="AZ31" s="87"/>
+      <c r="AG31" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="108"/>
+      <c r="AK31" s="108"/>
+      <c r="AL31" s="108"/>
+      <c r="AM31" s="108"/>
+      <c r="AN31" s="108"/>
+      <c r="AO31" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP31" s="113"/>
+      <c r="AQ31" s="113"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="114"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="52">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="90" t="s">
-        <v>146</v>
+      <c r="B32" s="103" t="s">
+        <v>142</v>
       </c>
       <c r="C32" s="91"/>
       <c r="D32" s="91"/>
@@ -15970,29 +15979,29 @@
       <c r="G32" s="91"/>
       <c r="H32" s="91"/>
       <c r="I32" s="92"/>
-      <c r="J32" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
+      <c r="J32" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
       <c r="R32" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="S32" s="94"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="90" t="s">
-        <v>100</v>
+      <c r="S32" s="88"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="103" t="s">
+        <v>96</v>
       </c>
       <c r="Z32" s="91"/>
       <c r="AA32" s="91"/>
@@ -16001,59 +16010,59 @@
       <c r="AD32" s="91"/>
       <c r="AE32" s="91"/>
       <c r="AF32" s="92"/>
-      <c r="AG32" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="89"/>
-      <c r="AJ32" s="89"/>
-      <c r="AK32" s="89"/>
-      <c r="AL32" s="89"/>
-      <c r="AM32" s="89"/>
-      <c r="AN32" s="89"/>
-      <c r="AO32" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP32" s="86"/>
-      <c r="AQ32" s="86"/>
-      <c r="AR32" s="86"/>
-      <c r="AS32" s="86"/>
-      <c r="AT32" s="86"/>
-      <c r="AU32" s="86"/>
-      <c r="AV32" s="86"/>
-      <c r="AW32" s="86"/>
-      <c r="AX32" s="86"/>
-      <c r="AY32" s="86"/>
-      <c r="AZ32" s="87"/>
+      <c r="AG32" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP32" s="113"/>
+      <c r="AQ32" s="113"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="114"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="38">
         <f t="shared" ref="A33:A35" si="1">ROW()-10</f>
         <v>23</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="108" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="93"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="95"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="89"/>
       <c r="U33" s="45"/>
       <c r="V33" s="40"/>
       <c r="W33" s="40"/>
@@ -16074,49 +16083,49 @@
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
       <c r="AN33" s="42"/>
-      <c r="AO33" s="112" t="s">
+      <c r="AO33" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AP33" s="113"/>
-      <c r="AQ33" s="113"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="114"/>
+      <c r="AP33" s="95"/>
+      <c r="AQ33" s="95"/>
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="95"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="96"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="38">
         <f>ROW()-10</f>
         <v>24</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="108" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="95"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="89"/>
       <c r="U34" s="39"/>
       <c r="V34" s="40"/>
       <c r="W34" s="40"/>
@@ -16159,7 +16168,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="91"/>
@@ -16169,21 +16178,21 @@
       <c r="G35" s="91"/>
       <c r="H35" s="91"/>
       <c r="I35" s="92"/>
-      <c r="J35" s="108" t="s">
+      <c r="J35" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
       <c r="R35" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="S35" s="94"/>
-      <c r="T35" s="95"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="89"/>
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
@@ -16221,26 +16230,155 @@
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
@@ -16265,155 +16403,26 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
